--- a/biology/Biologie cellulaire et moléculaire/Osmoseur/Osmoseur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Osmoseur/Osmoseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'osmoseur est un dispositif permettant de produire de l'eau considérée comme pure selon le principe de l'osmose inverse. Il débarrasse l'eau de la majeure partie de ses solutés tels que les chlorures, les sulfates, les phosphates, etc.
 </t>
@@ -511,7 +523,9 @@
           <t>Étapes de filtration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>l'eau à purifier passe au travers d'un premier filtre anti sédiments à 5 µ qui élimine les boues, le sable, la poussière.
 l'eau passe au travers d'un filtre au charbon actif qui retient le chlore et [certaines] molécules [organiques] de grande taille. (Certaines marques font produire un charbon actif fritté capable de retenir la majorité des contaminants contenus dans l'eau. Ceci a pour effet de supprimer totalement le risque, somme toute assez présent, de relargage. L'utilisation de ce dernier a aussi pour effet de limiter la quantité de cartouches nécessaires au bon fonctionnement de l'ensemble).
@@ -548,12 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Utilisations domestiques
-Eau de table (plutôt que d'acheter de l'eau en bouteille).
+          <t>Utilisations domestiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eau de table (plutôt que d'acheter de l'eau en bouteille).
 Eau d'aquarium.
-Élimination de polluants indésirables (nitrates, métaux lourds)
-Utilisations commerciales et industrielles
-Dessalement de l'eau de mer. Les bâtiments de la Marine (bâtiments de surface et sous-marins), ainsi que la plupart des navires de commerce utilisent des osmoseurs qui fournissent toute l'eau douce du bord.
+Élimination de polluants indésirables (nitrates, métaux lourds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Osmoseur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Osmoseur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utilisations commerciales et industrielles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dessalement de l'eau de mer. Les bâtiments de la Marine (bâtiments de surface et sous-marins), ainsi que la plupart des navires de commerce utilisent des osmoseurs qui fournissent toute l'eau douce du bord.
 Réduction de la salinité d'eaux destinées à la consommation humaine.
 Alimentation de chaudières à vapeur.
 Préparation d'eau pour l'industrie des alcools.
@@ -564,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Osmoseur</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Osmoseur</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lien connexes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmose
 Osmose inverse
